--- a/Code Metrics Sprint 4.xlsx
+++ b/Code Metrics Sprint 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman\Documents\3902TeamRed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEDE944-FBF7-40FC-9EB6-4FBBB3FD4431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA72E14-EBBA-4637-BA94-B2A801A7D203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B668E5A1-7AF8-44E7-A440-3260F5863557}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,6 +498,24 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>1241</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>181</v>
+      </c>
+      <c r="F4">
+        <v>6039</v>
+      </c>
+      <c r="G4">
+        <v>1570</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
